--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3811223.455252478</v>
+        <v>3809043.646547978</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8332028.172575412</v>
+        <v>8332028.172575411</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215498.8072369356</v>
+        <v>215498.8072369354</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.91464376221061</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="R2" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I3" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.47865120333135</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.47865120333135</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,46 +914,46 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9.956053622142033</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,52 +990,52 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,70 +1057,70 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E7" t="n">
+      <c r="T7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F7" t="n">
+      <c r="U7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1151,52 +1151,52 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.602605461619501</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.602605461619501</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="X8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1297,64 +1297,64 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H10" t="n">
+      <c r="U10" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E11" t="n">
-        <v>331.7132802195411</v>
+        <v>331.7132802195407</v>
       </c>
       <c r="F11" t="n">
         <v>356.6589558889904</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.61193228582565</v>
+        <v>62.61193228582562</v>
       </c>
       <c r="T11" t="n">
         <v>154.4003697957855</v>
@@ -1528,25 +1528,25 @@
         <v>129.6148903292162</v>
       </c>
       <c r="C13" t="n">
-        <v>117.0297312459068</v>
+        <v>117.0297312459067</v>
       </c>
       <c r="D13" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549127</v>
       </c>
       <c r="E13" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384808</v>
       </c>
       <c r="F13" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817021016</v>
       </c>
       <c r="G13" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H13" t="n">
-        <v>95.17520046955622</v>
+        <v>95.17520046955761</v>
       </c>
       <c r="I13" t="n">
-        <v>48.29085923760797</v>
+        <v>48.29085923760796</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93793006451738</v>
+        <v>41.93793006451737</v>
       </c>
       <c r="S13" t="n">
         <v>140.8010734716172</v>
@@ -1616,7 +1616,7 @@
         <v>331.7132802195407</v>
       </c>
       <c r="F14" t="n">
-        <v>356.6589558889904</v>
+        <v>356.6589558889905</v>
       </c>
       <c r="G14" t="n">
         <v>360.8644278073312</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.61193228582565</v>
+        <v>62.61193228582562</v>
       </c>
       <c r="T14" t="n">
         <v>154.4003697957855</v>
@@ -1664,7 +1664,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V14" t="n">
-        <v>277.5351686174141</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W14" t="n">
         <v>299.0238788646919</v>
@@ -1765,16 +1765,16 @@
         <v>129.6148903292162</v>
       </c>
       <c r="C16" t="n">
-        <v>117.0297312459068</v>
+        <v>117.0297312459067</v>
       </c>
       <c r="D16" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549127</v>
       </c>
       <c r="E16" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384808</v>
       </c>
       <c r="F16" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817021016</v>
       </c>
       <c r="G16" t="n">
         <v>115.8803955994311</v>
@@ -1783,7 +1783,7 @@
         <v>95.17520046955622</v>
       </c>
       <c r="I16" t="n">
-        <v>48.29085923760882</v>
+        <v>48.29085923760796</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451737</v>
       </c>
       <c r="S16" t="n">
         <v>140.8010734716172</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.61193228582564</v>
+        <v>62.61193228582562</v>
       </c>
       <c r="T17" t="n">
         <v>154.4003697957855</v>
@@ -2002,16 +2002,16 @@
         <v>129.6148903292162</v>
       </c>
       <c r="C19" t="n">
-        <v>117.0297312459068</v>
+        <v>117.0297312459067</v>
       </c>
       <c r="D19" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549127</v>
       </c>
       <c r="E19" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384808</v>
       </c>
       <c r="F19" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817021016</v>
       </c>
       <c r="G19" t="n">
         <v>115.8803955994311</v>
@@ -2020,7 +2020,7 @@
         <v>95.17520046955622</v>
       </c>
       <c r="I19" t="n">
-        <v>48.29085923760798</v>
+        <v>48.29085923760796</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451737</v>
       </c>
       <c r="S19" t="n">
         <v>140.8010734716172</v>
@@ -2096,7 +2096,7 @@
         <v>360.8644278073312</v>
       </c>
       <c r="H20" t="n">
-        <v>246.0271444221796</v>
+        <v>246.0271444221797</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>299.0238788646919</v>
       </c>
       <c r="X20" t="n">
-        <v>319.514010825748</v>
+        <v>319.5140108257481</v>
       </c>
       <c r="Y20" t="n">
         <v>336.0208488033325</v>
@@ -2242,22 +2242,22 @@
         <v>117.0297312459067</v>
       </c>
       <c r="D22" t="n">
-        <v>98.39838316549125</v>
+        <v>98.39838316549127</v>
       </c>
       <c r="E22" t="n">
-        <v>96.21687279384807</v>
+        <v>96.21687279384808</v>
       </c>
       <c r="F22" t="n">
-        <v>95.20395817021014</v>
+        <v>95.20395817021016</v>
       </c>
       <c r="G22" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H22" t="n">
-        <v>95.17520046955619</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I22" t="n">
-        <v>48.29085923760961</v>
+        <v>48.29085923760796</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93793006451736</v>
+        <v>41.93793006451737</v>
       </c>
       <c r="S22" t="n">
-        <v>140.8010734716171</v>
+        <v>140.8010734716172</v>
       </c>
       <c r="T22" t="n">
         <v>169.6381165213413</v>
@@ -2333,7 +2333,7 @@
         <v>360.8644278073312</v>
       </c>
       <c r="H23" t="n">
-        <v>246.0271444221796</v>
+        <v>246.0271444221797</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.61193228582562</v>
+        <v>62.61193228582565</v>
       </c>
       <c r="T23" t="n">
         <v>154.4003697957855</v>
@@ -2476,25 +2476,25 @@
         <v>129.6148903292162</v>
       </c>
       <c r="C25" t="n">
-        <v>117.0297312459067</v>
+        <v>117.0297312459068</v>
       </c>
       <c r="D25" t="n">
-        <v>98.39838316549125</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E25" t="n">
-        <v>96.21687279384807</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F25" t="n">
-        <v>95.20395817021014</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G25" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H25" t="n">
-        <v>95.17520046955619</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I25" t="n">
-        <v>48.29085923760795</v>
+        <v>48.29085923760798</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93793006451736</v>
+        <v>41.93793006451739</v>
       </c>
       <c r="S25" t="n">
-        <v>140.8010734716171</v>
+        <v>140.8010734716172</v>
       </c>
       <c r="T25" t="n">
         <v>169.6381165213413</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>91.69247251787614</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.15501991723846</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.2157478706923</v>
       </c>
       <c r="V28" t="n">
-        <v>114.3821246900422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0974854521522</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>54.35456928620449</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>92.15501991723846</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T31" t="n">
         <v>219.8552063740624</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2157478706923</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.814061387834</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0815176600524</v>
+        <v>411.0815176600523</v>
       </c>
       <c r="H32" t="n">
-        <v>296.2442342749009</v>
+        <v>296.2442342749007</v>
       </c>
       <c r="I32" t="n">
-        <v>47.73731110732755</v>
+        <v>47.73731110732743</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>112.8290221385468</v>
+        <v>112.8290221385467</v>
       </c>
       <c r="T32" t="n">
-        <v>204.6174596485067</v>
+        <v>204.6174596485066</v>
       </c>
       <c r="U32" t="n">
-        <v>251.00795531943</v>
+        <v>251.0079553194299</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>92.15501991723846</v>
       </c>
       <c r="S34" t="n">
-        <v>169.5803381548624</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2157478706924</v>
+        <v>187.003789127145</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>356.6589558889904</v>
       </c>
       <c r="G35" t="n">
-        <v>360.8644278073313</v>
+        <v>360.8644278073312</v>
       </c>
       <c r="H35" t="n">
         <v>246.0271444221797</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.61193228582567</v>
+        <v>62.61193228582565</v>
       </c>
       <c r="T35" t="n">
         <v>154.4003697957855</v>
@@ -3323,7 +3323,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V35" t="n">
-        <v>277.5351686174139</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W35" t="n">
         <v>299.0238788646919</v>
@@ -3332,7 +3332,7 @@
         <v>319.514010825748</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.0208488033326</v>
+        <v>336.0208488033325</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C37" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D37" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E37" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F37" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G37" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H37" t="n">
-        <v>95.17520046955624</v>
+        <v>95.1752004695571</v>
       </c>
       <c r="I37" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760798</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451739</v>
       </c>
       <c r="S37" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T37" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U37" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V37" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W37" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X37" t="n">
         <v>175.4925655363161</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107593</v>
       </c>
       <c r="C38" t="n">
         <v>315.0558019182865</v>
@@ -3515,7 +3515,7 @@
         <v>356.6589558889904</v>
       </c>
       <c r="G38" t="n">
-        <v>360.8644278073313</v>
+        <v>360.8644278073312</v>
       </c>
       <c r="H38" t="n">
         <v>246.0271444221797</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.61193228582567</v>
+        <v>62.61193228582565</v>
       </c>
       <c r="T38" t="n">
         <v>154.4003697957855</v>
@@ -3560,7 +3560,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V38" t="n">
-        <v>277.5351686174139</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W38" t="n">
         <v>299.0238788646919</v>
@@ -3569,7 +3569,7 @@
         <v>319.514010825748</v>
       </c>
       <c r="Y38" t="n">
-        <v>336.0208488033326</v>
+        <v>336.0208488033325</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C40" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D40" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E40" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F40" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G40" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H40" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I40" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760798</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451739</v>
       </c>
       <c r="S40" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T40" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U40" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V40" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W40" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X40" t="n">
         <v>175.4925655363161</v>
@@ -3740,7 +3740,7 @@
         <v>332.5167518107595</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0558019182864</v>
+        <v>315.0558019182865</v>
       </c>
       <c r="D41" t="n">
         <v>304.4659517679619</v>
@@ -3749,7 +3749,7 @@
         <v>331.7132802195407</v>
       </c>
       <c r="F41" t="n">
-        <v>356.6589558889904</v>
+        <v>356.6589558889905</v>
       </c>
       <c r="G41" t="n">
         <v>360.8644278073312</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.61193228582567</v>
+        <v>62.61193228582565</v>
       </c>
       <c r="T41" t="n">
         <v>154.4003697957855</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C43" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D43" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E43" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F43" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G43" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H43" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I43" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760884</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451739</v>
       </c>
       <c r="S43" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T43" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U43" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V43" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W43" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X43" t="n">
         <v>175.4925655363161</v>
@@ -3992,7 +3992,7 @@
         <v>360.8644278073312</v>
       </c>
       <c r="H44" t="n">
-        <v>246.0271444221797</v>
+        <v>246.0271444221798</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.61193228582567</v>
+        <v>62.61193228582565</v>
       </c>
       <c r="T44" t="n">
         <v>154.4003697957855</v>
@@ -4034,7 +4034,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V44" t="n">
-        <v>277.5351686174137</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W44" t="n">
         <v>299.0238788646919</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C46" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D46" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E46" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F46" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G46" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H46" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I46" t="n">
-        <v>48.29085923760839</v>
+        <v>48.29085923760797</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451738</v>
       </c>
       <c r="S46" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T46" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U46" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V46" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W46" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X46" t="n">
         <v>175.4925655363161</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.71652332176248</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.25921270041348</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.25921270041348</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.25921270041348</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>16.37392914119499</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L2" t="n">
-        <v>31.52363928117914</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M2" t="n">
-        <v>31.52363928117914</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N2" t="n">
-        <v>31.52363928117914</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O2" t="n">
-        <v>46.67334942116329</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P2" t="n">
-        <v>61.21095006054202</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231494</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="R2" t="n">
-        <v>35.66202407096595</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="S2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="T2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.66202407096595</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.13884024390883</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C3" t="n">
-        <v>32.13884024390883</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D3" t="n">
-        <v>32.13884024390883</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E3" t="n">
-        <v>32.13884024390883</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F3" t="n">
-        <v>32.13884024390883</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G3" t="n">
-        <v>32.13884024390883</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H3" t="n">
-        <v>16.68152962255984</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>16.37392914119499</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>31.52363928117914</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>31.52363928117914</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>46.06123992055787</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
-        <v>46.06123992055787</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P3" t="n">
-        <v>61.21095006054202</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.21095006054202</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919302</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>45.75363943919302</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>45.75363943919302</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>45.75363943919302</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>45.75363943919302</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W3" t="n">
-        <v>32.13884024390883</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X3" t="n">
-        <v>32.13884024390883</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y3" t="n">
-        <v>32.13884024390883</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.29632881784403</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>16.68152962255984</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>16.68152962255984</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68152962255984</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>16.68152962255984</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K4" t="n">
-        <v>1.22421900121084</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L4" t="n">
-        <v>15.76181964058957</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M4" t="n">
-        <v>30.91152978057372</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.06123992055787</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
-        <v>61.21095006054202</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>61.21095006054202</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.21095006054202</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>45.75363943919302</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>45.75363943919302</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T4" t="n">
-        <v>45.75363943919302</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>45.75363943919302</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V4" t="n">
-        <v>45.75363943919302</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W4" t="n">
-        <v>45.75363943919302</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>45.75363943919302</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.75363943919302</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="D5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>44.20882949099123</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
+        <v>15.7618196405891</v>
+      </c>
+      <c r="M5" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4589,28 +4589,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>51.15433024019471</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>51.15433024019471</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>51.15433024019471</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>51.15433024019471</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.15433024019471</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4650,7 +4650,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M6" t="n">
         <v>31.52363928117821</v>
@@ -4659,37 +4659,37 @@
         <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="P6" t="n">
         <v>46.6733494211619</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>48.35028351804213</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U6" t="n">
-        <v>48.35028351804213</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V6" t="n">
-        <v>48.35028351804213</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
         <v>1.224219001210804</v>
@@ -4729,7 +4729,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
         <v>30.9115297805728</v>
@@ -4750,25 +4750,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="M8" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>46.0612399205565</v>
       </c>
-      <c r="N8" t="n">
-        <v>61.2109500605402</v>
-      </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="R8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T8" t="n">
         <v>54.54165161445989</v>
       </c>
-      <c r="R8" t="n">
-        <v>39.08434099311135</v>
-      </c>
-      <c r="S8" t="n">
-        <v>39.08434099311135</v>
-      </c>
-      <c r="T8" t="n">
-        <v>39.08434099311135</v>
-      </c>
       <c r="U8" t="n">
-        <v>39.08434099311135</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="V8" t="n">
-        <v>39.08434099311135</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="W8" t="n">
         <v>39.08434099311135</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
         <v>1.224219001210804</v>
@@ -4887,16 +4887,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4908,25 +4908,25 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -4969,43 +4969,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2109500605402</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>328.8503291111392</v>
       </c>
       <c r="H11" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="I11" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J11" t="n">
-        <v>392.137533509843</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K11" t="n">
-        <v>705.8340261648872</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L11" t="n">
-        <v>1545.38862850771</v>
+        <v>1486.97717014736</v>
       </c>
       <c r="M11" t="n">
-        <v>2051.143035782724</v>
+        <v>1992.731577422374</v>
       </c>
       <c r="N11" t="n">
-        <v>2569.694886496235</v>
+        <v>2511.283428135885</v>
       </c>
       <c r="O11" t="n">
-        <v>3046.013433478262</v>
+        <v>3364.594154568029</v>
       </c>
       <c r="P11" t="n">
         <v>3736.620013539176</v>
@@ -5063,19 +5063,19 @@
         <v>3967.823193632785</v>
       </c>
       <c r="R11" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.903100901418</v>
       </c>
       <c r="S11" t="n">
         <v>3953.65872485513</v>
       </c>
       <c r="T11" t="n">
-        <v>3797.698755364438</v>
+        <v>3797.698755364437</v>
       </c>
       <c r="U11" t="n">
         <v>3594.879699337459</v>
       </c>
       <c r="V11" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178455</v>
       </c>
       <c r="W11" t="n">
         <v>3012.496823092908</v>
@@ -5112,10 +5112,10 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H12" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I12" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J12" t="n">
         <v>166.0185849899807</v>
@@ -5133,13 +5133,13 @@
         <v>1616.274706487284</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.097667888625</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q12" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R12" t="n">
         <v>2574.358745311557</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.2627091716162</v>
+        <v>753.2627091716172</v>
       </c>
       <c r="C13" t="n">
-        <v>635.050859428276</v>
+        <v>635.050859428277</v>
       </c>
       <c r="D13" t="n">
-        <v>535.658553200507</v>
+        <v>535.6585532005081</v>
       </c>
       <c r="E13" t="n">
-        <v>438.4697928026806</v>
+        <v>438.4697928026818</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3041784893371</v>
+        <v>342.3041784893381</v>
       </c>
       <c r="G13" t="n">
-        <v>225.2532738434467</v>
+        <v>225.2532738434481</v>
       </c>
       <c r="H13" t="n">
         <v>129.1167077125819</v>
       </c>
       <c r="I13" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J13" t="n">
         <v>170.1587116408336</v>
@@ -5203,7 +5203,7 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L13" t="n">
-        <v>771.3413408463372</v>
+        <v>771.3413408463373</v>
       </c>
       <c r="M13" t="n">
         <v>1154.089936830755</v>
@@ -5215,34 +5215,34 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P13" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642468</v>
       </c>
       <c r="Q13" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116395</v>
       </c>
       <c r="R13" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T13" t="n">
-        <v>1912.555779209853</v>
+        <v>1912.555779209854</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V13" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489704</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776254</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172902</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>328.8503291111392</v>
       </c>
       <c r="H14" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="I14" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J14" t="n">
         <v>255.7906676251868</v>
       </c>
       <c r="K14" t="n">
-        <v>890.3911187256841</v>
+        <v>569.487160280231</v>
       </c>
       <c r="L14" t="n">
-        <v>1316.461118663561</v>
+        <v>995.557160218108</v>
       </c>
       <c r="M14" t="n">
-        <v>1822.215525938575</v>
+        <v>1946.329965651026</v>
       </c>
       <c r="N14" t="n">
-        <v>2773.74083181995</v>
+        <v>2888.275607586002</v>
       </c>
       <c r="O14" t="n">
         <v>3364.594154568029</v>
@@ -5300,7 +5300,7 @@
         <v>3967.823193632785</v>
       </c>
       <c r="R14" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.903100901418</v>
       </c>
       <c r="S14" t="n">
         <v>3953.65872485513</v>
@@ -5349,10 +5349,10 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H15" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I15" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J15" t="n">
         <v>166.0185849899807</v>
@@ -5367,10 +5367,10 @@
         <v>1164.765453927226</v>
       </c>
       <c r="N15" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O15" t="n">
-        <v>2007.097667888625</v>
+        <v>2133.184759301471</v>
       </c>
       <c r="P15" t="n">
         <v>2427.521575143683</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>753.2627091716167</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C16" t="n">
-        <v>635.0508594282766</v>
+        <v>635.0508594282757</v>
       </c>
       <c r="D16" t="n">
-        <v>535.6585532005076</v>
+        <v>535.6585532005067</v>
       </c>
       <c r="E16" t="n">
-        <v>438.4697928026812</v>
+        <v>438.4697928026803</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3041784893376</v>
+        <v>342.3041784893367</v>
       </c>
       <c r="G16" t="n">
-        <v>225.2532738434476</v>
+        <v>225.2532738434467</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1167077125828</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I16" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J16" t="n">
         <v>170.1587116408336</v>
@@ -5440,16 +5440,16 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L16" t="n">
-        <v>771.3413408463371</v>
+        <v>771.3413408463372</v>
       </c>
       <c r="M16" t="n">
-        <v>1154.089936830755</v>
+        <v>1154.089936830754</v>
       </c>
       <c r="N16" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O16" t="n">
-        <v>1873.368937650503</v>
+        <v>1873.368937650502</v>
       </c>
       <c r="P16" t="n">
         <v>2147.109016642467</v>
@@ -5458,28 +5458,28 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R16" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T16" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.173296363418</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V16" t="n">
-        <v>1470.213141342098</v>
+        <v>1470.213141342097</v>
       </c>
       <c r="W16" t="n">
-        <v>1231.520304489704</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X16" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1868408172897</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>2014.464892345595</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.226708589751</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.685343167567</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.621423753889</v>
+        <v>1053.621423753888</v>
       </c>
       <c r="F17" t="n">
-        <v>693.3598521488484</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G17" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H17" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="I17" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J17" t="n">
         <v>423.1963166455399</v>
@@ -5522,43 +5522,43 @@
         <v>1162.962809238461</v>
       </c>
       <c r="M17" t="n">
-        <v>1936.750301704628</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N17" t="n">
-        <v>2888.275607586003</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O17" t="n">
-        <v>3364.594154568029</v>
+        <v>2770.762337050703</v>
       </c>
       <c r="P17" t="n">
-        <v>3736.620013539176</v>
+        <v>3461.368917111618</v>
       </c>
       <c r="Q17" t="n">
-        <v>3967.823193632785</v>
+        <v>3902.763937958532</v>
       </c>
       <c r="R17" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.903100901418</v>
       </c>
       <c r="S17" t="n">
         <v>3953.65872485513</v>
       </c>
       <c r="T17" t="n">
-        <v>3797.698755364439</v>
+        <v>3797.698755364437</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.87969933746</v>
+        <v>3594.879699337459</v>
       </c>
       <c r="V17" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178455</v>
       </c>
       <c r="W17" t="n">
         <v>3012.496823092908</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.755398016396</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y17" t="n">
-        <v>2350.340399225151</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H18" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I18" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J18" t="n">
         <v>166.0185849899807</v>
@@ -5601,10 +5601,10 @@
         <v>738.93530327356</v>
       </c>
       <c r="M18" t="n">
-        <v>1290.852545340072</v>
+        <v>1164.765453927226</v>
       </c>
       <c r="N18" t="n">
-        <v>1742.361797900129</v>
+        <v>1616.274706487284</v>
       </c>
       <c r="O18" t="n">
         <v>2133.184759301471</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>753.2627091716159</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C19" t="n">
-        <v>635.0508594282758</v>
+        <v>635.0508594282757</v>
       </c>
       <c r="D19" t="n">
         <v>535.6585532005067</v>
       </c>
       <c r="E19" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026803</v>
       </c>
       <c r="F19" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893367</v>
       </c>
       <c r="G19" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434467</v>
       </c>
       <c r="H19" t="n">
         <v>129.1167077125819</v>
       </c>
       <c r="I19" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J19" t="n">
         <v>170.1587116408336</v>
@@ -5677,10 +5677,10 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L19" t="n">
-        <v>771.3413408463371</v>
+        <v>771.3413408463373</v>
       </c>
       <c r="M19" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N19" t="n">
         <v>1534.354352764115</v>
@@ -5738,43 +5738,43 @@
         <v>1053.621423753888</v>
       </c>
       <c r="F20" t="n">
-        <v>693.3598521488476</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G20" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H20" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="I20" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J20" t="n">
-        <v>255.7906676251868</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K20" t="n">
-        <v>674.300230411929</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L20" t="n">
-        <v>1100.370230349806</v>
+        <v>1421.917914473107</v>
       </c>
       <c r="M20" t="n">
-        <v>2051.143035782724</v>
+        <v>1927.672321748121</v>
       </c>
       <c r="N20" t="n">
-        <v>2569.694886496235</v>
+        <v>2446.224172461632</v>
       </c>
       <c r="O20" t="n">
-        <v>3046.013433478262</v>
+        <v>3299.534898893776</v>
       </c>
       <c r="P20" t="n">
-        <v>3736.620013539176</v>
+        <v>3671.560757864923</v>
       </c>
       <c r="Q20" t="n">
-        <v>3967.823193632785</v>
+        <v>3902.763937958532</v>
       </c>
       <c r="R20" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.903100901418</v>
       </c>
       <c r="S20" t="n">
         <v>3953.65872485513</v>
@@ -5823,10 +5823,10 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H21" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I21" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J21" t="n">
         <v>166.0185849899807</v>
@@ -5835,22 +5835,22 @@
         <v>390.6150704668837</v>
       </c>
       <c r="L21" t="n">
-        <v>865.0223946864058</v>
+        <v>738.93530327356</v>
       </c>
       <c r="M21" t="n">
-        <v>1290.852545340072</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N21" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R21" t="n">
         <v>2574.358745311557</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.2627091716174</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C22" t="n">
-        <v>635.0508594282772</v>
+        <v>635.0508594282757</v>
       </c>
       <c r="D22" t="n">
-        <v>535.6585532005083</v>
+        <v>535.6585532005067</v>
       </c>
       <c r="E22" t="n">
-        <v>438.469792802682</v>
+        <v>438.4697928026803</v>
       </c>
       <c r="F22" t="n">
-        <v>342.3041784893384</v>
+        <v>342.3041784893367</v>
       </c>
       <c r="G22" t="n">
-        <v>225.2532738434484</v>
+        <v>225.2532738434467</v>
       </c>
       <c r="H22" t="n">
-        <v>129.1167077125835</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I22" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J22" t="n">
-        <v>170.1587116408337</v>
+        <v>170.1587116408336</v>
       </c>
       <c r="K22" t="n">
-        <v>415.616502790788</v>
+        <v>415.6165027907879</v>
       </c>
       <c r="L22" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463366</v>
       </c>
       <c r="M22" t="n">
-        <v>1154.089936830755</v>
+        <v>1154.089936830754</v>
       </c>
       <c r="N22" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O22" t="n">
-        <v>1873.368937650503</v>
+        <v>1873.368937650502</v>
       </c>
       <c r="P22" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q22" t="n">
-        <v>2268.492264116395</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R22" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S22" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T22" t="n">
-        <v>1912.555779209854</v>
+        <v>1912.555779209853</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.173296363418</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.213141342098</v>
+        <v>1470.213141342097</v>
       </c>
       <c r="W22" t="n">
-        <v>1231.520304489704</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.255086776254</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1868408172903</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.226708589751</v>
       </c>
       <c r="D23" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167567</v>
       </c>
       <c r="E23" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F23" t="n">
-        <v>693.3598521488472</v>
+        <v>693.3598521488489</v>
       </c>
       <c r="G23" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H23" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I23" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J23" t="n">
         <v>255.7906676251868</v>
       </c>
       <c r="K23" t="n">
-        <v>890.391118725684</v>
+        <v>569.487160280231</v>
       </c>
       <c r="L23" t="n">
-        <v>1316.461118663561</v>
+        <v>1155.744798002056</v>
       </c>
       <c r="M23" t="n">
-        <v>1822.215525938575</v>
+        <v>1661.49920527707</v>
       </c>
       <c r="N23" t="n">
-        <v>2340.767376652086</v>
+        <v>2613.024511158445</v>
       </c>
       <c r="O23" t="n">
-        <v>3046.013433478261</v>
+        <v>3089.343058140472</v>
       </c>
       <c r="P23" t="n">
-        <v>3736.620013539175</v>
+        <v>3461.368917111619</v>
       </c>
       <c r="Q23" t="n">
-        <v>3967.823193632784</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R23" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S23" t="n">
-        <v>3953.65872485513</v>
+        <v>3953.658724855131</v>
       </c>
       <c r="T23" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364439</v>
       </c>
       <c r="U23" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.87969933746</v>
       </c>
       <c r="V23" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178456</v>
       </c>
       <c r="W23" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092909</v>
       </c>
       <c r="X23" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016396</v>
       </c>
       <c r="Y23" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.340399225151</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.09068100485953</v>
+        <v>92.09068100485955</v>
       </c>
       <c r="I24" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J24" t="n">
         <v>166.0185849899807</v>
       </c>
       <c r="K24" t="n">
-        <v>390.6150704668837</v>
+        <v>516.7021618797296</v>
       </c>
       <c r="L24" t="n">
-        <v>738.93530327356</v>
+        <v>865.0223946864058</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.765453927226</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N24" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O24" t="n">
-        <v>2007.097667888625</v>
+        <v>2133.184759301471</v>
       </c>
       <c r="P24" t="n">
         <v>2427.521575143683</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>753.2627091716156</v>
+        <v>753.2627091716157</v>
       </c>
       <c r="C25" t="n">
-        <v>635.0508594282754</v>
+        <v>635.0508594282755</v>
       </c>
       <c r="D25" t="n">
-        <v>535.6585532005065</v>
+        <v>535.6585532005066</v>
       </c>
       <c r="E25" t="n">
-        <v>438.4697928026802</v>
+        <v>438.4697928026803</v>
       </c>
       <c r="F25" t="n">
         <v>342.3041784893367</v>
@@ -6139,37 +6139,37 @@
         <v>225.2532738434467</v>
       </c>
       <c r="H25" t="n">
-        <v>129.1167077125818</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I25" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J25" t="n">
-        <v>170.1587116408337</v>
+        <v>170.1587116408335</v>
       </c>
       <c r="K25" t="n">
-        <v>415.616502790788</v>
+        <v>415.6165027907878</v>
       </c>
       <c r="L25" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M25" t="n">
-        <v>1154.089936830755</v>
+        <v>1154.089936830754</v>
       </c>
       <c r="N25" t="n">
-        <v>1534.354352764114</v>
+        <v>1534.354352764115</v>
       </c>
       <c r="O25" t="n">
-        <v>1873.368937650501</v>
+        <v>1873.368937650502</v>
       </c>
       <c r="P25" t="n">
-        <v>2147.109016642466</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q25" t="n">
-        <v>2268.492264116393</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R25" t="n">
-        <v>2226.130718596678</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S25" t="n">
         <v>2083.907412059692</v>
@@ -6178,19 +6178,19 @@
         <v>1912.555779209852</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.173296363416</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V25" t="n">
-        <v>1470.213141342096</v>
+        <v>1470.213141342097</v>
       </c>
       <c r="W25" t="n">
-        <v>1231.520304489702</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X25" t="n">
         <v>1054.255086776252</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1868408172885</v>
+        <v>884.1868408172886</v>
       </c>
     </row>
     <row r="26">
@@ -6215,52 +6215,52 @@
         <v>858.5047628656305</v>
       </c>
       <c r="G26" t="n">
-        <v>443.2709066433554</v>
+        <v>443.2709066433551</v>
       </c>
       <c r="H26" t="n">
         <v>144.0343063656777</v>
       </c>
       <c r="I26" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J26" t="n">
         <v>271.2674058038185</v>
       </c>
       <c r="K26" t="n">
-        <v>584.9638984588628</v>
+        <v>905.8678569043158</v>
       </c>
       <c r="L26" t="n">
-        <v>1424.518500801686</v>
+        <v>1331.937856842193</v>
       </c>
       <c r="M26" t="n">
-        <v>2375.291306234604</v>
+        <v>2237.795924510885</v>
       </c>
       <c r="N26" t="n">
-        <v>3326.816612115979</v>
+        <v>2756.347775224395</v>
       </c>
       <c r="O26" t="n">
-        <v>3819.850342409844</v>
+        <v>3609.65850165654</v>
       </c>
       <c r="P26" t="n">
-        <v>4510.456922470759</v>
+        <v>4300.265081717454</v>
       </c>
       <c r="Q26" t="n">
-        <v>4741.660102564368</v>
+        <v>4741.660102564369</v>
       </c>
       <c r="R26" t="n">
-        <v>4790.740009833002</v>
+        <v>4790.740009833003</v>
       </c>
       <c r="S26" t="n">
-        <v>4676.771300602146</v>
+        <v>4676.771300602148</v>
       </c>
       <c r="T26" t="n">
-        <v>4470.086997926886</v>
+        <v>4470.086997926888</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.543608715342</v>
+        <v>4216.543608715343</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.480721371771</v>
+        <v>3885.480721371772</v>
       </c>
       <c r="W26" t="n">
         <v>3532.712066101658</v>
@@ -6300,7 +6300,7 @@
         <v>107.5674191834912</v>
       </c>
       <c r="I27" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J27" t="n">
         <v>181.4953231686123</v>
@@ -6309,22 +6309,22 @@
         <v>406.0918086455154</v>
       </c>
       <c r="L27" t="n">
-        <v>880.4991328650373</v>
+        <v>754.4120414521916</v>
       </c>
       <c r="M27" t="n">
-        <v>1306.329283518704</v>
+        <v>1180.242192105858</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.838536078761</v>
+        <v>1718.168748908894</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.661497480102</v>
+        <v>2108.991710310236</v>
       </c>
       <c r="P27" t="n">
-        <v>2442.998313322315</v>
+        <v>2403.328526152448</v>
       </c>
       <c r="Q27" t="n">
-        <v>2589.835483490189</v>
+        <v>2550.165696320322</v>
       </c>
       <c r="R27" t="n">
         <v>2589.835483490189</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.7575700348131</v>
+        <v>357.3696422335328</v>
       </c>
       <c r="C28" t="n">
-        <v>392.8213871069061</v>
+        <v>188.4334593056259</v>
       </c>
       <c r="D28" t="n">
-        <v>242.7047476945704</v>
+        <v>188.4334593056259</v>
       </c>
       <c r="E28" t="n">
-        <v>242.7047476945704</v>
+        <v>188.4334593056259</v>
       </c>
       <c r="F28" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="G28" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="H28" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="I28" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J28" t="n">
-        <v>135.9205308652714</v>
+        <v>135.9205308652715</v>
       </c>
       <c r="K28" t="n">
-        <v>331.6634030610318</v>
+        <v>331.6634030610319</v>
       </c>
       <c r="L28" t="n">
         <v>637.6733221623872</v>
@@ -6406,28 +6406,28 @@
         <v>1886.249650661475</v>
       </c>
       <c r="R28" t="n">
-        <v>1886.249650661475</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="S28" t="n">
-        <v>1886.249650661475</v>
+        <v>1600.21613223564</v>
       </c>
       <c r="T28" t="n">
-        <v>1886.249650661475</v>
+        <v>1600.21613223564</v>
       </c>
       <c r="U28" t="n">
-        <v>1597.142834630472</v>
+        <v>1311.109316204637</v>
       </c>
       <c r="V28" t="n">
-        <v>1481.605334943561</v>
+        <v>1056.424827998751</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.1881649066</v>
+        <v>767.0076579617898</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1986140085829</v>
+        <v>539.0181070637725</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.4060348650528</v>
+        <v>539.0181070637725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2382.507135800644</v>
+        <v>2382.507135800643</v>
       </c>
       <c r="C29" t="n">
-        <v>2013.544618860233</v>
+        <v>2013.544618860232</v>
       </c>
       <c r="D29" t="n">
         <v>1655.278920253482</v>
@@ -6449,7 +6449,7 @@
         <v>1269.490667655238</v>
       </c>
       <c r="F29" t="n">
-        <v>858.5047628656305</v>
+        <v>858.5047628656303</v>
       </c>
       <c r="G29" t="n">
         <v>443.2709066433554</v>
@@ -6458,55 +6458,55 @@
         <v>144.0343063656777</v>
       </c>
       <c r="I29" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2674058038185</v>
+        <v>438.6730548241716</v>
       </c>
       <c r="K29" t="n">
-        <v>584.9638984588628</v>
+        <v>1073.273505924669</v>
       </c>
       <c r="L29" t="n">
-        <v>1011.03389839674</v>
+        <v>1499.343505862546</v>
       </c>
       <c r="M29" t="n">
-        <v>1961.806703829658</v>
+        <v>2450.116311295465</v>
       </c>
       <c r="N29" t="n">
-        <v>2901.48036030345</v>
+        <v>3068.280699000261</v>
       </c>
       <c r="O29" t="n">
-        <v>3754.791086735594</v>
+        <v>3544.599245982287</v>
       </c>
       <c r="P29" t="n">
-        <v>4445.397666796509</v>
+        <v>4235.205826043202</v>
       </c>
       <c r="Q29" t="n">
-        <v>4676.600846890117</v>
+        <v>4676.600846890116</v>
       </c>
       <c r="R29" t="n">
-        <v>4790.740009833004</v>
+        <v>4790.740009833003</v>
       </c>
       <c r="S29" t="n">
-        <v>4676.771300602149</v>
+        <v>4676.771300602147</v>
       </c>
       <c r="T29" t="n">
-        <v>4470.086997926889</v>
+        <v>4470.086997926888</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.543608715344</v>
+        <v>4216.543608715342</v>
       </c>
       <c r="V29" t="n">
-        <v>3885.480721371773</v>
+        <v>3885.480721371771</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.712066101659</v>
+        <v>3532.712066101657</v>
       </c>
       <c r="X29" t="n">
-        <v>3159.246307840579</v>
+        <v>3159.246307840577</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.106975864766</v>
+        <v>2769.106975864765</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>107.5674191834912</v>
       </c>
       <c r="I30" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J30" t="n">
-        <v>181.4953231686124</v>
+        <v>181.4953231686123</v>
       </c>
       <c r="K30" t="n">
         <v>406.0918086455154</v>
@@ -6549,19 +6549,19 @@
         <v>754.4120414521916</v>
       </c>
       <c r="M30" t="n">
-        <v>1180.242192105858</v>
+        <v>1266.659496348837</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.838536078761</v>
+        <v>1718.168748908894</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.661497480102</v>
+        <v>2108.991710310236</v>
       </c>
       <c r="P30" t="n">
-        <v>2442.998313322315</v>
+        <v>2403.328526152448</v>
       </c>
       <c r="Q30" t="n">
-        <v>2589.835483490189</v>
+        <v>2550.165696320322</v>
       </c>
       <c r="R30" t="n">
         <v>2589.835483490189</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>764.5742689568067</v>
+        <v>730.5559539497525</v>
       </c>
       <c r="C31" t="n">
-        <v>595.6380860288998</v>
+        <v>561.6197710218456</v>
       </c>
       <c r="D31" t="n">
-        <v>445.521446616564</v>
+        <v>411.5031316095099</v>
       </c>
       <c r="E31" t="n">
-        <v>297.6083530341709</v>
+        <v>263.5900380271168</v>
       </c>
       <c r="F31" t="n">
-        <v>150.7184055362606</v>
+        <v>263.5900380271168</v>
       </c>
       <c r="G31" t="n">
-        <v>150.7184055362606</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7184055362606</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="I31" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J31" t="n">
         <v>135.9205308652715</v>
@@ -6646,25 +6646,25 @@
         <v>1793.163771957194</v>
       </c>
       <c r="S31" t="n">
-        <v>1793.163771957194</v>
+        <v>1600.21613223564</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.087805922787</v>
+        <v>1378.140166201233</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.980989891785</v>
+        <v>1378.140166201233</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.980989891785</v>
+        <v>1179.3380839913</v>
       </c>
       <c r="W31" t="n">
-        <v>992.563819854824</v>
+        <v>1179.3380839913</v>
       </c>
       <c r="X31" t="n">
-        <v>764.5742689568067</v>
+        <v>951.3485330932826</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.5742689568067</v>
+        <v>730.5559539497525</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2382.507135800645</v>
+        <v>2382.507135800644</v>
       </c>
       <c r="C32" t="n">
         <v>2013.544618860233</v>
@@ -6683,67 +6683,67 @@
         <v>1655.278920253483</v>
       </c>
       <c r="E32" t="n">
-        <v>1269.490667655238</v>
+        <v>1269.490667655239</v>
       </c>
       <c r="F32" t="n">
         <v>858.5047628656307</v>
       </c>
       <c r="G32" t="n">
-        <v>443.2709066433556</v>
+        <v>443.2709066433551</v>
       </c>
       <c r="H32" t="n">
-        <v>144.0343063656778</v>
+        <v>144.0343063656777</v>
       </c>
       <c r="I32" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2674058038185</v>
+        <v>438.6730548241716</v>
       </c>
       <c r="K32" t="n">
-        <v>905.8678569043158</v>
+        <v>771.4463835010487</v>
       </c>
       <c r="L32" t="n">
-        <v>1745.422459247139</v>
+        <v>1611.000985843872</v>
       </c>
       <c r="M32" t="n">
-        <v>2392.006489546445</v>
+        <v>2116.755393118886</v>
       </c>
       <c r="N32" t="n">
-        <v>3343.53179542782</v>
+        <v>3068.280699000261</v>
       </c>
       <c r="O32" t="n">
-        <v>3819.850342409846</v>
+        <v>3544.599245982287</v>
       </c>
       <c r="P32" t="n">
-        <v>4510.456922470761</v>
+        <v>4235.205826043202</v>
       </c>
       <c r="Q32" t="n">
-        <v>4741.660102564369</v>
+        <v>4676.600846890116</v>
       </c>
       <c r="R32" t="n">
-        <v>4790.740009833004</v>
+        <v>4790.740009833003</v>
       </c>
       <c r="S32" t="n">
-        <v>4676.771300602149</v>
+        <v>4676.771300602148</v>
       </c>
       <c r="T32" t="n">
-        <v>4470.086997926889</v>
+        <v>4470.086997926888</v>
       </c>
       <c r="U32" t="n">
-        <v>4216.543608715344</v>
+        <v>4216.543608715343</v>
       </c>
       <c r="V32" t="n">
-        <v>3885.480721371773</v>
+        <v>3885.480721371772</v>
       </c>
       <c r="W32" t="n">
-        <v>3532.712066101659</v>
+        <v>3532.712066101658</v>
       </c>
       <c r="X32" t="n">
-        <v>3159.246307840579</v>
+        <v>3159.246307840578</v>
       </c>
       <c r="Y32" t="n">
-        <v>2769.106975864767</v>
+        <v>2769.106975864766</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>107.5674191834912</v>
       </c>
       <c r="I33" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J33" t="n">
-        <v>181.4953231686124</v>
+        <v>181.4953231686123</v>
       </c>
       <c r="K33" t="n">
         <v>406.0918086455154</v>
@@ -6795,7 +6795,7 @@
         <v>2022.574406067257</v>
       </c>
       <c r="P33" t="n">
-        <v>2403.328526152448</v>
+        <v>2316.911221909469</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.165696320322</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.7344806892996</v>
+        <v>242.7047476945704</v>
       </c>
       <c r="C34" t="n">
-        <v>540.7344806892996</v>
+        <v>242.7047476945704</v>
       </c>
       <c r="D34" t="n">
-        <v>390.6178412769638</v>
+        <v>242.7047476945704</v>
       </c>
       <c r="E34" t="n">
-        <v>242.7047476945705</v>
+        <v>242.7047476945704</v>
       </c>
       <c r="F34" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="G34" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="H34" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="I34" t="n">
-        <v>95.81480019666007</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="J34" t="n">
-        <v>135.9205308652714</v>
+        <v>135.9205308652715</v>
       </c>
       <c r="K34" t="n">
-        <v>331.6634030610317</v>
+        <v>331.6634030610319</v>
       </c>
       <c r="L34" t="n">
-        <v>637.673322162387</v>
+        <v>637.6733221623872</v>
       </c>
       <c r="M34" t="n">
-        <v>970.7069991926105</v>
+        <v>970.7069991926107</v>
       </c>
       <c r="N34" t="n">
         <v>1301.256496171777</v>
@@ -6874,34 +6874,34 @@
         <v>1590.556162103971</v>
       </c>
       <c r="P34" t="n">
-        <v>1814.581322141741</v>
+        <v>1814.581322141742</v>
       </c>
       <c r="Q34" t="n">
-        <v>1886.249650661474</v>
+        <v>1886.249650661475</v>
       </c>
       <c r="R34" t="n">
-        <v>1886.249650661474</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="S34" t="n">
-        <v>1714.956379797977</v>
+        <v>1600.21613223564</v>
       </c>
       <c r="T34" t="n">
-        <v>1714.956379797977</v>
+        <v>1378.140166201233</v>
       </c>
       <c r="U34" t="n">
-        <v>1425.849563766974</v>
+        <v>1189.247449911188</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.165075561087</v>
+        <v>934.5629617053009</v>
       </c>
       <c r="W34" t="n">
-        <v>1171.165075561087</v>
+        <v>645.1457916683403</v>
       </c>
       <c r="X34" t="n">
-        <v>943.1755246630697</v>
+        <v>645.1457916683403</v>
       </c>
       <c r="Y34" t="n">
-        <v>722.3829455195395</v>
+        <v>424.3532125248101</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1388.685343167566</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.621423753889</v>
+        <v>1053.621423753888</v>
       </c>
       <c r="F35" t="n">
-        <v>693.3598521488477</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G35" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H35" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="I35" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J35" t="n">
         <v>255.7906676251868</v>
@@ -6941,37 +6941,37 @@
         <v>569.487160280231</v>
       </c>
       <c r="L35" t="n">
-        <v>1100.370230349806</v>
+        <v>995.557160218108</v>
       </c>
       <c r="M35" t="n">
-        <v>2051.143035782725</v>
+        <v>1501.311567493122</v>
       </c>
       <c r="N35" t="n">
-        <v>2569.694886496236</v>
+        <v>2019.863418206633</v>
       </c>
       <c r="O35" t="n">
-        <v>3046.013433478262</v>
+        <v>2873.174144638777</v>
       </c>
       <c r="P35" t="n">
-        <v>3736.620013539177</v>
+        <v>3563.780724699692</v>
       </c>
       <c r="Q35" t="n">
-        <v>3967.823193632786</v>
+        <v>3902.763937958532</v>
       </c>
       <c r="R35" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.903100901418</v>
       </c>
       <c r="S35" t="n">
-        <v>3953.658724855131</v>
+        <v>3953.65872485513</v>
       </c>
       <c r="T35" t="n">
-        <v>3797.698755364439</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U35" t="n">
-        <v>3594.87969933746</v>
+        <v>3594.879699337459</v>
       </c>
       <c r="V35" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178455</v>
       </c>
       <c r="W35" t="n">
         <v>3012.496823092908</v>
@@ -7008,10 +7008,10 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H36" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I36" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J36" t="n">
         <v>166.0185849899807</v>
@@ -7020,13 +7020,13 @@
         <v>390.6150704668837</v>
       </c>
       <c r="L36" t="n">
-        <v>738.93530327356</v>
+        <v>865.0223946864058</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.765453927226</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N36" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O36" t="n">
         <v>2133.184759301471</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.2627091716162</v>
+        <v>753.2627091716167</v>
       </c>
       <c r="C37" t="n">
-        <v>635.050859428276</v>
+        <v>635.0508594282766</v>
       </c>
       <c r="D37" t="n">
-        <v>535.658553200507</v>
+        <v>535.6585532005076</v>
       </c>
       <c r="E37" t="n">
-        <v>438.4697928026806</v>
+        <v>438.4697928026812</v>
       </c>
       <c r="F37" t="n">
-        <v>342.3041784893369</v>
+        <v>342.3041784893376</v>
       </c>
       <c r="G37" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434476</v>
       </c>
       <c r="H37" t="n">
         <v>129.1167077125819</v>
       </c>
       <c r="I37" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802837</v>
       </c>
       <c r="J37" t="n">
         <v>170.1587116408336</v>
@@ -7099,7 +7099,7 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L37" t="n">
-        <v>771.3413408463372</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M37" t="n">
         <v>1154.089936830755</v>
@@ -7117,28 +7117,28 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S37" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T37" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V37" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W37" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489704</v>
       </c>
       <c r="X37" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1868408172892</v>
+        <v>884.1868408172897</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D38" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E38" t="n">
         <v>1053.621423753888</v>
       </c>
       <c r="F38" t="n">
-        <v>693.359852148847</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G38" t="n">
         <v>328.8503291111392</v>
@@ -7178,16 +7178,16 @@
         <v>569.487160280231</v>
       </c>
       <c r="L38" t="n">
-        <v>1112.415173339845</v>
+        <v>1409.041762623054</v>
       </c>
       <c r="M38" t="n">
-        <v>1618.16958061486</v>
+        <v>2359.814568055972</v>
       </c>
       <c r="N38" t="n">
-        <v>2569.694886496235</v>
+        <v>2878.366418769483</v>
       </c>
       <c r="O38" t="n">
-        <v>3046.013433478261</v>
+        <v>3364.594154568029</v>
       </c>
       <c r="P38" t="n">
         <v>3736.620013539176</v>
@@ -7214,10 +7214,10 @@
         <v>3012.496823092908</v>
       </c>
       <c r="X38" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y38" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="39">
@@ -7266,7 +7266,7 @@
         <v>1616.274706487284</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.184759301471</v>
+        <v>2007.097667888625</v>
       </c>
       <c r="P39" t="n">
         <v>2427.521575143683</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716159</v>
       </c>
       <c r="C40" t="n">
-        <v>635.0508594282759</v>
+        <v>635.0508594282758</v>
       </c>
       <c r="D40" t="n">
-        <v>535.6585532005068</v>
+        <v>535.6585532005067</v>
       </c>
       <c r="E40" t="n">
         <v>438.4697928026804</v>
@@ -7321,7 +7321,7 @@
         <v>342.3041784893368</v>
       </c>
       <c r="G40" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434467</v>
       </c>
       <c r="H40" t="n">
         <v>129.1167077125819</v>
@@ -7339,13 +7339,13 @@
         <v>771.3413408463371</v>
       </c>
       <c r="M40" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N40" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O40" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P40" t="n">
         <v>2147.109016642467</v>
@@ -7375,7 +7375,7 @@
         <v>1054.255086776252</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>255.7906676251868</v>
       </c>
       <c r="K41" t="n">
-        <v>814.2229065013493</v>
+        <v>569.487160280231</v>
       </c>
       <c r="L41" t="n">
-        <v>1653.777508844172</v>
+        <v>995.557160218108</v>
       </c>
       <c r="M41" t="n">
-        <v>2159.531916119186</v>
+        <v>1946.329965651026</v>
       </c>
       <c r="N41" t="n">
-        <v>2678.083766832697</v>
+        <v>2504.635630821982</v>
       </c>
       <c r="O41" t="n">
-        <v>3154.402313814724</v>
+        <v>2980.954177804008</v>
       </c>
       <c r="P41" t="n">
-        <v>3526.428172785871</v>
+        <v>3671.560757864923</v>
       </c>
       <c r="Q41" t="n">
-        <v>3967.823193632785</v>
+        <v>3902.763937958532</v>
       </c>
       <c r="R41" t="n">
         <v>4016.903100901418</v>
@@ -7488,28 +7488,28 @@
         <v>80.33806201802837</v>
       </c>
       <c r="J42" t="n">
-        <v>252.43588923296</v>
+        <v>166.0185849899807</v>
       </c>
       <c r="K42" t="n">
-        <v>477.032374709863</v>
+        <v>390.6150704668837</v>
       </c>
       <c r="L42" t="n">
-        <v>825.3526075165393</v>
+        <v>738.93530327356</v>
       </c>
       <c r="M42" t="n">
-        <v>1251.182758170206</v>
+        <v>1164.765453927226</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.692010730263</v>
+        <v>1616.274706487284</v>
       </c>
       <c r="O42" t="n">
-        <v>2093.514972131604</v>
+        <v>2133.184759301471</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.851787973816</v>
+        <v>2427.521575143683</v>
       </c>
       <c r="Q42" t="n">
-        <v>2534.688958141691</v>
+        <v>2574.358745311557</v>
       </c>
       <c r="R42" t="n">
         <v>2574.358745311557</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716167</v>
       </c>
       <c r="C43" t="n">
-        <v>635.0508594282759</v>
+        <v>635.0508594282766</v>
       </c>
       <c r="D43" t="n">
-        <v>535.6585532005068</v>
+        <v>535.6585532005076</v>
       </c>
       <c r="E43" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026812</v>
       </c>
       <c r="F43" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893376</v>
       </c>
       <c r="G43" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434476</v>
       </c>
       <c r="H43" t="n">
-        <v>129.1167077125819</v>
+        <v>129.1167077125828</v>
       </c>
       <c r="I43" t="n">
         <v>80.33806201802837</v>
@@ -7573,10 +7573,10 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L43" t="n">
-        <v>771.3413408463372</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M43" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N43" t="n">
         <v>1534.354352764115</v>
@@ -7591,28 +7591,28 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S43" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T43" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V43" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W43" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489704</v>
       </c>
       <c r="X43" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172897</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1053.621423753888</v>
       </c>
       <c r="F44" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488476</v>
       </c>
       <c r="G44" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H44" t="n">
         <v>80.33806201802837</v>
@@ -7649,16 +7649,16 @@
         <v>255.7906676251868</v>
       </c>
       <c r="K44" t="n">
-        <v>569.487160280231</v>
+        <v>686.3451734019683</v>
       </c>
       <c r="L44" t="n">
-        <v>995.557160218108</v>
+        <v>1112.415173339845</v>
       </c>
       <c r="M44" t="n">
-        <v>1501.311567493122</v>
+        <v>1618.16958061486</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.836873374497</v>
+        <v>2569.694886496235</v>
       </c>
       <c r="O44" t="n">
         <v>3046.013433478261</v>
@@ -7728,22 +7728,22 @@
         <v>166.0185849899807</v>
       </c>
       <c r="K45" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L45" t="n">
-        <v>738.93530327356</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.765453927226</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N45" t="n">
-        <v>1616.274706487284</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O45" t="n">
-        <v>2007.097667888625</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P45" t="n">
-        <v>2301.434483730837</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q45" t="n">
         <v>2534.688958141691</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>753.2627091716165</v>
+        <v>753.2627091716157</v>
       </c>
       <c r="C46" t="n">
-        <v>635.0508594282763</v>
+        <v>635.0508594282755</v>
       </c>
       <c r="D46" t="n">
-        <v>535.6585532005073</v>
+        <v>535.6585532005065</v>
       </c>
       <c r="E46" t="n">
-        <v>438.4697928026809</v>
+        <v>438.4697928026802</v>
       </c>
       <c r="F46" t="n">
-        <v>342.3041784893372</v>
+        <v>342.3041784893366</v>
       </c>
       <c r="G46" t="n">
-        <v>225.2532738434472</v>
+        <v>225.2532738434466</v>
       </c>
       <c r="H46" t="n">
-        <v>129.1167077125823</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I46" t="n">
         <v>80.33806201802837</v>
@@ -7810,7 +7810,7 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L46" t="n">
-        <v>771.3413408463371</v>
+        <v>771.3413408463372</v>
       </c>
       <c r="M46" t="n">
         <v>1154.089936830755</v>
@@ -7825,16 +7825,16 @@
         <v>2147.109016642467</v>
       </c>
       <c r="Q46" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116393</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S46" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T46" t="n">
-        <v>1912.555779209853</v>
+        <v>1912.555779209852</v>
       </c>
       <c r="U46" t="n">
         <v>1674.173296363417</v>
@@ -7846,10 +7846,10 @@
         <v>1231.520304489703</v>
       </c>
       <c r="X46" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y46" t="n">
-        <v>884.1868408172895</v>
+        <v>884.1868408172886</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601161</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851227</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368222</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P2" t="n">
-        <v>245.9174408455511</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.1441764894945</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950097</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736148</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294657</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>149.5691213715198</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M4" t="n">
-        <v>154.2285214627406</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9882819803687</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7592759669783</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>250.4508600602684</v>
@@ -8228,7 +8228,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>148.6588525046114</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.7241069541981</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>327.2872332413116</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="P12" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>427.6704961832984</v>
       </c>
       <c r="O14" t="n">
-        <v>115.6916926929824</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>127.3606983968141</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>270.7404900920734</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>108.2572957996878</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>127.3606983968141</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>105.871788011816</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>261.5708133683292</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>161.8056947312606</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>231.2399089334831</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>127.360698396814</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>404.1451115087651</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.88402354731198</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>127.3606983968138</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>87.29020630603952</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>425.3755613740212</v>
+        <v>100.6187242336219</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>87.29020630603947</v>
       </c>
       <c r="N30" t="n">
-        <v>127.3606983968139</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>19.26953133518475</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>142.2521444689816</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>87.29020630603947</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>105.8717880118166</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>108.8687203689204</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>127.360698396814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10826,19 +10826,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>118.038397092664</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>10.00928163284806</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>127.360698396814</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>247.207824465776</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>40.15536813883318</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>87.29020630603972</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>127.3606983968141</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>5.451177720546639</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>118.0383970926639</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>118.038397092664</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.29020630603969</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>53.7285755050551</v>
       </c>
       <c r="G28" t="n">
         <v>166.0974854521522</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.15501991723846</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.8552063740624</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>137.7555186337858</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0974854521522</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.3922903222773</v>
       </c>
       <c r="I31" t="n">
-        <v>44.15337980412455</v>
+        <v>98.50794909032905</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2157478706923</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>55.32358193599399</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0974854521523</v>
+        <v>166.0974854521522</v>
       </c>
       <c r="H34" t="n">
-        <v>145.3922903222774</v>
+        <v>145.3922903222773</v>
       </c>
       <c r="I34" t="n">
-        <v>98.50794909032916</v>
+        <v>98.50794909032905</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>92.15501991723858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.43782516947599</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.8552063740625</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>99.21195874354737</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645865.9761749692</v>
+        <v>645865.9761749693</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642608.6619942862</v>
+        <v>642608.6619942861</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645865.9761749693</v>
+        <v>645865.9761749692</v>
       </c>
     </row>
     <row r="14">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="F2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642837</v>
+      </c>
+      <c r="H2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="I2" t="n">
         <v>821041.7698642833</v>
-      </c>
-      <c r="E2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="F2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821041.7698642835</v>
       </c>
       <c r="J2" t="n">
         <v>792308.5955660257</v>
@@ -26344,16 +26344,16 @@
         <v>792308.5955660257</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642832</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5128.299304284756</v>
+        <v>5128.299304284603</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54621.31550453394</v>
+        <v>54621.3155045338</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>238406.4353083679</v>
+        <v>238406.4353083681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="C4" t="n">
         <v>408123.0807897232</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="E4" t="n">
-        <v>81418.75251059842</v>
+        <v>81418.75251059841</v>
       </c>
       <c r="F4" t="n">
         <v>81418.75251059842</v>
       </c>
       <c r="G4" t="n">
+        <v>81418.75251059841</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81418.7525105984</v>
+      </c>
+      <c r="I4" t="n">
         <v>81418.75251059842</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>49168.78041078205</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49168.78041078206</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49168.78041078206</v>
+      </c>
+      <c r="M4" t="n">
+        <v>81418.75251059841</v>
+      </c>
+      <c r="N4" t="n">
         <v>81418.75251059842</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81418.75251059838</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49168.78041078203</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49168.7804107821</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49168.78041078196</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81418.7525105984</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81418.75251059837</v>
       </c>
       <c r="O4" t="n">
         <v>81418.7525105984</v>
       </c>
       <c r="P4" t="n">
-        <v>81418.7525105984</v>
+        <v>81418.75251059841</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34558.00644092024</v>
+        <v>34558.00644092021</v>
       </c>
       <c r="C5" t="n">
         <v>34558.00644092021</v>
@@ -26494,10 +26494,10 @@
         <v>95709.86811861172</v>
       </c>
       <c r="K5" t="n">
-        <v>95709.86811861175</v>
+        <v>95709.86811861172</v>
       </c>
       <c r="L5" t="n">
-        <v>95709.86811861173</v>
+        <v>95709.86811861172</v>
       </c>
       <c r="M5" t="n">
         <v>88169.24762968006</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373232.3833293554</v>
+        <v>373232.3833293552</v>
       </c>
       <c r="C6" t="n">
-        <v>378360.6826336402</v>
+        <v>378360.6826336401</v>
       </c>
       <c r="D6" t="n">
-        <v>378360.6826336399</v>
+        <v>378360.68263364</v>
       </c>
       <c r="E6" t="n">
-        <v>-527586.5628508379</v>
+        <v>-527586.5628508378</v>
       </c>
       <c r="F6" t="n">
-        <v>651453.769724005</v>
+        <v>651453.7697240051</v>
       </c>
       <c r="G6" t="n">
-        <v>651453.769724005</v>
+        <v>651453.7697240053</v>
       </c>
       <c r="H6" t="n">
+        <v>651453.7697240046</v>
+      </c>
+      <c r="I6" t="n">
         <v>651453.7697240048</v>
       </c>
-      <c r="I6" t="n">
-        <v>651453.769724005</v>
-      </c>
       <c r="J6" t="n">
-        <v>592808.6315320979</v>
+        <v>592736.7985963525</v>
       </c>
       <c r="K6" t="n">
-        <v>647429.9470366321</v>
+        <v>647358.1141008865</v>
       </c>
       <c r="L6" t="n">
-        <v>647429.9470366321</v>
+        <v>647358.1141008863</v>
       </c>
       <c r="M6" t="n">
         <v>413047.3344156371</v>
       </c>
       <c r="N6" t="n">
-        <v>651453.769724005</v>
+        <v>651453.7697240048</v>
       </c>
       <c r="O6" t="n">
-        <v>651453.7697240049</v>
+        <v>651453.7697240053</v>
       </c>
       <c r="P6" t="n">
-        <v>651453.769724005</v>
+        <v>651453.7697240047</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>50.21708985272109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.21708985272109</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.21708985272109</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50.21708985272109</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.21708985272107</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.21708985272107</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50.21708985272107</v>
+      </c>
+      <c r="O2" t="n">
+        <v>50.21708985272107</v>
+      </c>
+      <c r="P2" t="n">
         <v>50.21708985272108</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50.21708985272108</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50.21708985272108</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50.2170898527211</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50.2170898527211</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="P2" t="n">
-        <v>50.21708985272105</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C4" t="n">
         <v>15.30273751513505</v>
@@ -26808,10 +26808,10 @@
         <v>1004.225775225355</v>
       </c>
       <c r="I4" t="n">
-        <v>1004.225775225354</v>
+        <v>1004.225775225355</v>
       </c>
       <c r="J4" t="n">
-        <v>1197.68500245825</v>
+        <v>1197.685002458251</v>
       </c>
       <c r="K4" t="n">
         <v>1197.685002458251</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.21708985272117</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>988.9230377102197</v>
+        <v>988.9230377102195</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>208.7619647480315</v>
+        <v>208.7619647480309</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>795.4638104773236</v>
+        <v>795.4638104773247</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>988.9230377102197</v>
+        <v>988.9230377102195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03464559240190468</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.388093752925303</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5663804260142</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.9664143613078</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>96.93270672136096</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533627957</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750763</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>238.2163319575883</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.5292426668018</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>153.7681698952965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.6882418433233</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27582,19 +27582,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>161.990653862034</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.3803041055479</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>139.9130643190076</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>321.1496530085154</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.42577427557005</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>236.3922456457846</v>
+        <v>238.2163319575887</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27822,13 +27822,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1060021487638</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.388093752925303</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>216.4932441025119</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9664143613078</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,13 +27980,13 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.2045199005069</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.9553114432382</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,10 +28062,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>275.5618188882664</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I11" t="n">
         <v>47.73731110732743</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="J13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="K13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="L13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="M13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="N13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="O13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="P13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="R13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="S13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I14" t="n">
         <v>47.73731110732743</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="J16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="K16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="L16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="M16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="N16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="O16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="P16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="R16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="S16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I17" t="n">
         <v>47.73731110732743</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="J19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="K19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="L19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="M19" t="n">
-        <v>50.21708985272068</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="N19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="O19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272022</v>
       </c>
       <c r="P19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="R19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I20" t="n">
         <v>47.73731110732743</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="C22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="D22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="E22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="F22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="G22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="H22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="I22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="J22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="K22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="L22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272051</v>
       </c>
       <c r="M22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="N22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="O22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="P22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="R22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="S22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="T22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="U22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="V22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="W22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="X22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272109</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I23" t="n">
         <v>47.73731110732743</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N25" t="n">
-        <v>50.21708985271937</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="R25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.2170898527211</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.200533006340265e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I35" t="n">
         <v>47.73731110732743</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="R37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272124</v>
       </c>
       <c r="C38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I38" t="n">
         <v>47.73731110732743</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M40" t="n">
-        <v>50.21708985272068</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272079</v>
       </c>
       <c r="R40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I41" t="n">
         <v>47.73731110732743</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="R43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="C44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="D44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="E44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="F44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="G44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="H44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="I44" t="n">
         <v>47.73731110732743</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="T44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="U44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="V44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="W44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="X44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="C46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="D46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="E46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="F46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="G46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="H46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="I46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="J46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="K46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="L46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="M46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="N46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="O46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="P46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="R46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="S46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="T46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="U46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="V46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="W46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="X46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272108</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O2" t="n">
-        <v>15.3027375151355</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P2" t="n">
-        <v>14.68444509028155</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
-        <v>15.3027375151355</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.68444509028155</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P3" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.68444509028154</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>15.3027375151355</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>14.68444509028111</v>
@@ -34948,7 +34948,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>314.948961102843</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K11" t="n">
         <v>316.8651440960043</v>
       </c>
       <c r="L11" t="n">
-        <v>848.0349518614373</v>
+        <v>757.6609705522985</v>
       </c>
       <c r="M11" t="n">
         <v>510.8630376515296</v>
@@ -35422,10 +35422,10 @@
         <v>523.7897481954653</v>
       </c>
       <c r="O11" t="n">
-        <v>481.1298454363902</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P11" t="n">
-        <v>697.5824041019341</v>
+        <v>375.7836959304515</v>
       </c>
       <c r="Q11" t="n">
         <v>233.5385657511199</v>
@@ -35501,16 +35501,16 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O12" t="n">
-        <v>394.7706680821631</v>
+        <v>482.0608743882028</v>
       </c>
       <c r="P12" t="n">
-        <v>424.6706133889476</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q12" t="n">
         <v>148.3203739069438</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192454</v>
       </c>
       <c r="K13" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L13" t="n">
-        <v>359.3180182379285</v>
+        <v>359.3180182379286</v>
       </c>
       <c r="M13" t="n">
         <v>386.6147434186035</v>
@@ -35647,19 +35647,19 @@
         <v>177.2248541486449</v>
       </c>
       <c r="K14" t="n">
-        <v>641.010556667169</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L14" t="n">
         <v>430.3737373109869</v>
       </c>
       <c r="M14" t="n">
-        <v>510.8630376515296</v>
+        <v>960.3765711443621</v>
       </c>
       <c r="N14" t="n">
-        <v>961.1366726074494</v>
+        <v>951.4602443787637</v>
       </c>
       <c r="O14" t="n">
-        <v>596.8215381293726</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P14" t="n">
         <v>375.7836959304515</v>
@@ -35735,13 +35735,13 @@
         <v>430.1314653067338</v>
       </c>
       <c r="N15" t="n">
-        <v>456.0699520808657</v>
+        <v>583.4306504776798</v>
       </c>
       <c r="O15" t="n">
         <v>394.7706680821631</v>
       </c>
       <c r="P15" t="n">
-        <v>424.6706133889476</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q15" t="n">
         <v>148.3203739069438</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192454</v>
       </c>
       <c r="K16" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L16" t="n">
-        <v>359.3180182379285</v>
+        <v>359.3180182379286</v>
       </c>
       <c r="M16" t="n">
         <v>386.6147434186035</v>
@@ -35890,22 +35890,22 @@
         <v>430.3737373109869</v>
       </c>
       <c r="M17" t="n">
-        <v>781.603527743603</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N17" t="n">
-        <v>961.1366726074494</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O17" t="n">
-        <v>481.1298454363902</v>
+        <v>589.3871412360779</v>
       </c>
       <c r="P17" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q17" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R17" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>351.8386189966427</v>
       </c>
       <c r="M18" t="n">
-        <v>557.4921637035478</v>
+        <v>430.1314653067338</v>
       </c>
       <c r="N18" t="n">
         <v>456.0699520808657</v>
       </c>
       <c r="O18" t="n">
-        <v>394.7706680821631</v>
+        <v>522.1313664789772</v>
       </c>
       <c r="P18" t="n">
         <v>297.3099149921335</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192454</v>
       </c>
       <c r="K19" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L19" t="n">
-        <v>359.3180182379285</v>
+        <v>359.3180182379286</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6147434186031</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N19" t="n">
         <v>384.1054706397581</v>
       </c>
       <c r="O19" t="n">
-        <v>342.4389746327147</v>
+        <v>342.4389746327139</v>
       </c>
       <c r="P19" t="n">
         <v>276.5051302949138</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K20" t="n">
-        <v>422.7369321078203</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L20" t="n">
-        <v>430.3737373109869</v>
+        <v>691.9445506793161</v>
       </c>
       <c r="M20" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N20" t="n">
         <v>523.7897481954653</v>
       </c>
       <c r="O20" t="n">
-        <v>481.1298454363902</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P20" t="n">
-        <v>697.5824041019341</v>
+        <v>375.7836959304515</v>
       </c>
       <c r="Q20" t="n">
         <v>233.5385657511199</v>
       </c>
       <c r="R20" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>226.8651368453566</v>
       </c>
       <c r="L21" t="n">
-        <v>479.1993173934567</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M21" t="n">
-        <v>430.1314653067338</v>
+        <v>517.4216716127735</v>
       </c>
       <c r="N21" t="n">
         <v>456.0699520808657</v>
@@ -36221,7 +36221,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.72792891192455</v>
+        <v>90.72792891192454</v>
       </c>
       <c r="K22" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L22" t="n">
-        <v>359.3180182379286</v>
+        <v>359.318018237928</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N22" t="n">
         <v>384.1054706397581</v>
       </c>
       <c r="O22" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P22" t="n">
         <v>276.5051302949138</v>
@@ -36358,28 +36358,28 @@
         <v>177.2248541486449</v>
       </c>
       <c r="K23" t="n">
-        <v>641.010556667169</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L23" t="n">
-        <v>430.3737373109869</v>
+        <v>592.1794320422475</v>
       </c>
       <c r="M23" t="n">
         <v>510.8630376515296</v>
       </c>
       <c r="N23" t="n">
-        <v>523.7897481954653</v>
+        <v>961.1366726074494</v>
       </c>
       <c r="O23" t="n">
-        <v>712.3697543698732</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P23" t="n">
-        <v>697.5824041019341</v>
+        <v>375.7836959304515</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R23" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>86.54598279995182</v>
       </c>
       <c r="K24" t="n">
-        <v>226.8651368453566</v>
+        <v>354.2258352421706</v>
       </c>
       <c r="L24" t="n">
         <v>351.8386189966427</v>
@@ -36452,7 +36452,7 @@
         <v>394.7706680821631</v>
       </c>
       <c r="P24" t="n">
-        <v>424.6706133889476</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q24" t="n">
         <v>148.3203739069438</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.72792891192455</v>
+        <v>90.72792891192452</v>
       </c>
       <c r="K25" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L25" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N25" t="n">
-        <v>384.1054706397564</v>
+        <v>384.1054706397581</v>
       </c>
       <c r="O25" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P25" t="n">
         <v>276.5051302949138</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>177.2248541486449</v>
       </c>
       <c r="K26" t="n">
-        <v>316.8651440960043</v>
+        <v>641.010556667169</v>
       </c>
       <c r="L26" t="n">
-        <v>848.0349518614373</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M26" t="n">
-        <v>960.3765711443621</v>
+        <v>915.0081491602947</v>
       </c>
       <c r="N26" t="n">
-        <v>961.1366726074494</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O26" t="n">
-        <v>498.0138689837021</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P26" t="n">
         <v>697.5824041019341</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R26" t="n">
         <v>49.57566390771092</v>
@@ -36677,13 +36677,13 @@
         <v>226.8651368453566</v>
       </c>
       <c r="L27" t="n">
-        <v>479.1993173934565</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M27" t="n">
         <v>430.1314653067338</v>
       </c>
       <c r="N27" t="n">
-        <v>456.0699520808657</v>
+        <v>543.3601583869053</v>
       </c>
       <c r="O27" t="n">
         <v>394.7706680821631</v>
@@ -36695,7 +36695,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K29" t="n">
-        <v>316.8651440960043</v>
+        <v>641.010556667169</v>
       </c>
       <c r="L29" t="n">
         <v>430.3737373109869</v>
@@ -36841,16 +36841,16 @@
         <v>960.3765711443621</v>
       </c>
       <c r="N29" t="n">
-        <v>949.1653095694866</v>
+        <v>624.4084724290873</v>
       </c>
       <c r="O29" t="n">
-        <v>861.9300266991355</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P29" t="n">
         <v>697.5824041019341</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R29" t="n">
         <v>115.2920837806934</v>
@@ -36917,10 +36917,10 @@
         <v>351.8386189966427</v>
       </c>
       <c r="M30" t="n">
-        <v>430.1314653067338</v>
+        <v>517.4216716127733</v>
       </c>
       <c r="N30" t="n">
-        <v>583.4306504776796</v>
+        <v>456.0699520808657</v>
       </c>
       <c r="O30" t="n">
         <v>394.7706680821631</v>
@@ -36932,7 +36932,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K32" t="n">
-        <v>641.010556667169</v>
+        <v>336.134675431189</v>
       </c>
       <c r="L32" t="n">
         <v>848.0349518614373</v>
       </c>
       <c r="M32" t="n">
-        <v>653.1151821205111</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N32" t="n">
         <v>961.1366726074494</v>
@@ -37087,10 +37087,10 @@
         <v>697.5824041019341</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R32" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>394.7706680821631</v>
       </c>
       <c r="P33" t="n">
-        <v>384.600121298173</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q33" t="n">
-        <v>148.3203739069438</v>
+        <v>235.6105802129835</v>
       </c>
       <c r="R33" t="n">
         <v>40.07049209077418</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>40.51083905920333</v>
+        <v>40.51083905920345</v>
       </c>
       <c r="K34" t="n">
-        <v>197.7200729250104</v>
+        <v>197.7200729250105</v>
       </c>
       <c r="L34" t="n">
-        <v>309.1009283852073</v>
+        <v>309.1009283852075</v>
       </c>
       <c r="M34" t="n">
-        <v>336.3976535658823</v>
+        <v>336.3976535658824</v>
       </c>
       <c r="N34" t="n">
-        <v>333.8883807870369</v>
+        <v>333.888380787037</v>
       </c>
       <c r="O34" t="n">
-        <v>292.2218847799936</v>
+        <v>292.2218847799937</v>
       </c>
       <c r="P34" t="n">
-        <v>226.2880404421927</v>
+        <v>226.2880404421928</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.39225103003317</v>
+        <v>72.39225103003328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>316.8651440960043</v>
       </c>
       <c r="L35" t="n">
-        <v>536.2455253228035</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M35" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N35" t="n">
         <v>523.7897481954653</v>
       </c>
       <c r="O35" t="n">
-        <v>481.1298454363902</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P35" t="n">
         <v>697.5824041019341</v>
       </c>
       <c r="Q35" t="n">
-        <v>233.5385657511199</v>
+        <v>342.4072861200403</v>
       </c>
       <c r="R35" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>226.8651368453566</v>
       </c>
       <c r="L36" t="n">
-        <v>351.8386189966427</v>
+        <v>479.1993173934567</v>
       </c>
       <c r="M36" t="n">
         <v>430.1314653067338</v>
@@ -37397,7 +37397,7 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1313664789772</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P36" t="n">
         <v>297.3099149921335</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192452</v>
       </c>
       <c r="K37" t="n">
-        <v>247.9371627777315</v>
+        <v>247.9371627777316</v>
       </c>
       <c r="L37" t="n">
         <v>359.3180182379285</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6147434186034</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N37" t="n">
         <v>384.1054706397581</v>
@@ -37482,7 +37482,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.6093408827543</v>
+        <v>122.6093408827544</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>316.8651440960043</v>
       </c>
       <c r="L38" t="n">
-        <v>548.4121344036508</v>
+        <v>848.0349518614373</v>
       </c>
       <c r="M38" t="n">
-        <v>510.8630376515296</v>
+        <v>960.3765711443621</v>
       </c>
       <c r="N38" t="n">
-        <v>961.1366726074494</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O38" t="n">
-        <v>481.1298454363902</v>
+        <v>491.1391270692382</v>
       </c>
       <c r="P38" t="n">
-        <v>697.5824041019341</v>
+        <v>375.7836959304515</v>
       </c>
       <c r="Q38" t="n">
         <v>233.5385657511199</v>
@@ -37634,10 +37634,10 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O39" t="n">
-        <v>522.1313664789772</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3099149921335</v>
+        <v>424.6706133889476</v>
       </c>
       <c r="Q39" t="n">
         <v>148.3203739069438</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192452</v>
       </c>
       <c r="K40" t="n">
-        <v>247.9371627777315</v>
+        <v>247.9371627777316</v>
       </c>
       <c r="L40" t="n">
         <v>359.3180182379285</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6147434186031</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N40" t="n">
-        <v>384.105470639758</v>
+        <v>384.1054706397581</v>
       </c>
       <c r="O40" t="n">
         <v>342.4389746327147</v>
@@ -37719,7 +37719,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.6093408827543</v>
+        <v>122.6093408827541</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>177.2248541486449</v>
       </c>
       <c r="K41" t="n">
-        <v>564.0729685617803</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L41" t="n">
-        <v>848.0349518614373</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M41" t="n">
-        <v>510.8630376515296</v>
+        <v>960.3765711443621</v>
       </c>
       <c r="N41" t="n">
-        <v>523.7897481954653</v>
+        <v>563.9451163342985</v>
       </c>
       <c r="O41" t="n">
         <v>481.1298454363902</v>
       </c>
       <c r="P41" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q41" t="n">
-        <v>445.8535564110246</v>
+        <v>233.5385657511199</v>
       </c>
       <c r="R41" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>173.8361891059915</v>
+        <v>86.54598279995182</v>
       </c>
       <c r="K42" t="n">
         <v>226.8651368453566</v>
@@ -37871,7 +37871,7 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O42" t="n">
-        <v>394.7706680821631</v>
+        <v>522.1313664789772</v>
       </c>
       <c r="P42" t="n">
         <v>297.3099149921335</v>
@@ -37880,7 +37880,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R42" t="n">
-        <v>40.07049209077418</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192452</v>
       </c>
       <c r="K43" t="n">
-        <v>247.9371627777315</v>
+        <v>247.9371627777316</v>
       </c>
       <c r="L43" t="n">
         <v>359.3180182379285</v>
@@ -37947,7 +37947,7 @@
         <v>386.6147434186035</v>
       </c>
       <c r="N43" t="n">
-        <v>384.105470639758</v>
+        <v>384.1054706397581</v>
       </c>
       <c r="O43" t="n">
         <v>342.4389746327147</v>
@@ -37956,7 +37956,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.6093408827543</v>
+        <v>122.6093408827544</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>177.2248541486449</v>
       </c>
       <c r="K44" t="n">
-        <v>316.8651440960043</v>
+        <v>434.9035411886682</v>
       </c>
       <c r="L44" t="n">
         <v>430.3737373109869</v>
@@ -38029,7 +38029,7 @@
         <v>961.1366726074494</v>
       </c>
       <c r="O44" t="n">
-        <v>599.1682425290542</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P44" t="n">
         <v>697.5824041019341</v>
@@ -38096,7 +38096,7 @@
         <v>86.54598279995182</v>
       </c>
       <c r="K45" t="n">
-        <v>226.8651368453566</v>
+        <v>314.1553431513963</v>
       </c>
       <c r="L45" t="n">
         <v>351.8386189966427</v>
@@ -38114,7 +38114,7 @@
         <v>297.3099149921335</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6105802129835</v>
+        <v>148.3203739069438</v>
       </c>
       <c r="R45" t="n">
         <v>40.07049209077418</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192452</v>
       </c>
       <c r="K46" t="n">
-        <v>247.9371627777315</v>
+        <v>247.9371627777316</v>
       </c>
       <c r="L46" t="n">
         <v>359.3180182379285</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6147434186034</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N46" t="n">
-        <v>384.105470639758</v>
+        <v>384.1054706397581</v>
       </c>
       <c r="O46" t="n">
         <v>342.4389746327147</v>
@@ -38193,7 +38193,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.6093408827543</v>
+        <v>122.6093408827544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
